--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8265333333333333</v>
+        <v>1.999699333333333</v>
       </c>
       <c r="H2">
-        <v>2.4796</v>
+        <v>5.999098</v>
       </c>
       <c r="I2">
-        <v>0.2856046655980103</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="J2">
-        <v>0.2856046655980104</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,28 +549,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>0.2336119323555556</v>
+        <v>0.1792323846802222</v>
       </c>
       <c r="R2">
-        <v>2.1025073912</v>
+        <v>1.613091462122</v>
       </c>
       <c r="S2">
-        <v>0.1326456386544281</v>
+        <v>0.2432635397907494</v>
       </c>
       <c r="T2">
-        <v>0.1326456386544281</v>
+        <v>0.2432635397907494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8265333333333333</v>
+        <v>1.999699333333333</v>
       </c>
       <c r="H3">
-        <v>2.4796</v>
+        <v>5.999098</v>
       </c>
       <c r="I3">
-        <v>0.2856046655980103</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="J3">
-        <v>0.2856046655980104</v>
+        <v>0.5605459117818491</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -611,28 +611,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>0.2693873256444445</v>
+        <v>0.2337681848988889</v>
       </c>
       <c r="R3">
-        <v>2.4244859308</v>
+        <v>2.10391366409</v>
       </c>
       <c r="S3">
-        <v>0.1529590269435822</v>
+        <v>0.3172823719910997</v>
       </c>
       <c r="T3">
-        <v>0.1529590269435823</v>
+        <v>0.3172823719910997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.067443666666667</v>
+        <v>1.567714666666667</v>
       </c>
       <c r="H4">
-        <v>6.202331000000001</v>
+        <v>4.703144</v>
       </c>
       <c r="I4">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="J4">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -673,28 +673,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N4">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q4">
-        <v>0.5843436562424447</v>
+        <v>0.1405137430017778</v>
       </c>
       <c r="R4">
-        <v>5.259092906182001</v>
+        <v>1.264623687016</v>
       </c>
       <c r="S4">
-        <v>0.3317922877242934</v>
+        <v>0.1907125800554724</v>
       </c>
       <c r="T4">
-        <v>0.3317922877242934</v>
+        <v>0.1907125800554724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.067443666666667</v>
+        <v>1.567714666666667</v>
       </c>
       <c r="H5">
-        <v>6.202331000000001</v>
+        <v>4.703144</v>
       </c>
       <c r="I5">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="J5">
-        <v>0.7143953344019897</v>
+        <v>0.4394540882181509</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -735,28 +735,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N5">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O5">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P5">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q5">
-        <v>0.6738301987625557</v>
+        <v>0.1832684573911111</v>
       </c>
       <c r="R5">
-        <v>6.064471788863001</v>
+        <v>1.64941611652</v>
       </c>
       <c r="S5">
-        <v>0.3826030466776962</v>
+        <v>0.2487415081626785</v>
       </c>
       <c r="T5">
-        <v>0.3826030466776962</v>
+        <v>0.2487415081626785</v>
       </c>
     </row>
   </sheetData>
